--- a/ontology/Properties0710.xlsx
+++ b/ontology/Properties0710.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OuYuanchang\destop\单位工作\20150819_文物数字化保护标准体系及关键标准研究与示范\virtual\virtual\ontology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6270"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28820" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="428">
   <si>
     <t>Domains</t>
   </si>
@@ -642,10 +647,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Thing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Relic or VisualDocumentation or Annotation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -774,10 +775,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Relic or VisualDocumnetation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">type </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1206,10 +1203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Thing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1238,10 +1231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Relic:FormatType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>formatType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1286,10 +1275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VisualDocumentation or VisualDocumentationAggregation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>member</t>
   </si>
   <si>
@@ -1694,14 +1679,25 @@
   </si>
   <si>
     <t>Relico:hasMember</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>owl:Thing</t>
+  </si>
+  <si>
+    <t>VisualDocumentation or DocumentationAggregation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relico:FormatType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1788,6 +1784,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1835,7 +1834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1870,7 +1869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2079,27 +2078,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C81" sqref="C81"/>
+      <selection pane="topRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="36.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2138,12 +2137,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2158,18 +2157,18 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="J2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2184,13 +2183,13 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -2210,18 +2209,18 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2236,18 +2235,18 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2266,12 +2265,12 @@
         <v>Relico:identifier</v>
       </c>
       <c r="J6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2289,13 +2288,13 @@
         <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -2315,18 +2314,18 @@
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -2345,10 +2344,10 @@
         <v>Relico:currentLocation</v>
       </c>
       <c r="J9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2368,13 +2367,13 @@
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -2394,13 +2393,13 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="J11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>62</v>
       </c>
@@ -2420,13 +2419,13 @@
         <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="J12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2446,13 +2445,13 @@
         <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2472,13 +2471,13 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>73</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -2498,13 +2497,13 @@
         <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="J15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
@@ -2524,13 +2523,13 @@
         <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="J16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
         <v>75</v>
@@ -2550,13 +2549,13 @@
         <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>76</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
@@ -2576,13 +2575,13 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E19" t="s">
         <v>77</v>
@@ -2602,13 +2601,13 @@
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -2628,18 +2627,18 @@
         <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -2654,13 +2653,13 @@
         <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -2680,13 +2679,13 @@
         <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>96</v>
       </c>
@@ -2706,13 +2705,13 @@
         <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="J23" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>98</v>
       </c>
@@ -2732,13 +2731,13 @@
         <v>105</v>
       </c>
       <c r="I24" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>99</v>
       </c>
@@ -2758,13 +2757,13 @@
         <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>108</v>
       </c>
@@ -2784,13 +2783,13 @@
         <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J26" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -2810,13 +2809,13 @@
         <v>115</v>
       </c>
       <c r="I27" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J27" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -2836,13 +2835,13 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>118</v>
       </c>
@@ -2862,13 +2861,13 @@
         <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>120</v>
       </c>
@@ -2888,13 +2887,13 @@
         <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>119</v>
       </c>
@@ -2914,13 +2913,13 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J31" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -2940,13 +2939,13 @@
         <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J32" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -2966,15 +2965,15 @@
         <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J33" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -2983,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F34" t="s">
         <v>135</v>
@@ -2992,13 +2991,13 @@
         <v>139</v>
       </c>
       <c r="I34" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J34" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>133</v>
       </c>
@@ -3018,13 +3017,13 @@
         <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
         <v>140</v>
@@ -3044,13 +3043,13 @@
         <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="J36" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>146</v>
       </c>
@@ -3070,21 +3069,21 @@
         <v>154</v>
       </c>
       <c r="I37" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J37" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
         <v>156</v>
@@ -3096,44 +3095,44 @@
         <v>158</v>
       </c>
       <c r="I38" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J38" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I39" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
         <v>59</v>
@@ -3148,18 +3147,18 @@
         <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
         <v>59</v>
@@ -3174,13 +3173,13 @@
         <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>151</v>
       </c>
@@ -3200,44 +3199,44 @@
         <v>155</v>
       </c>
       <c r="I42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J42" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="D43" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E43" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G43" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I43" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J43" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3252,18 +3251,18 @@
         <v>57</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J44" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -3278,463 +3277,463 @@
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
         <v>161</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>162</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" t="s">
         <v>163</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" t="s">
+        <v>165</v>
+      </c>
+      <c r="J46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
         <v>161</v>
       </c>
-      <c r="F46" t="s">
-        <v>164</v>
-      </c>
-      <c r="G46" t="s">
-        <v>165</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
         <v>166</v>
       </c>
-      <c r="J46" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
+      <c r="F47" t="s">
         <v>167</v>
       </c>
-      <c r="C47" t="s">
+      <c r="G47" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" t="s">
+        <v>169</v>
+      </c>
+      <c r="J47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
         <v>162</v>
       </c>
-      <c r="D47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" t="s">
-        <v>169</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="E48" t="s">
         <v>170</v>
       </c>
-      <c r="J47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
+      <c r="F48" t="s">
         <v>171</v>
       </c>
-      <c r="C48" t="s">
+      <c r="G48" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s">
         <v>162</v>
       </c>
-      <c r="D48" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="E49" t="s">
         <v>174</v>
       </c>
-      <c r="J48" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
+      <c r="F49" t="s">
         <v>175</v>
       </c>
-      <c r="C49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>176</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>177</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>178</v>
       </c>
-      <c r="J49" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
         <v>179</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>180</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
         <v>181</v>
       </c>
-      <c r="E50" t="s">
-        <v>179</v>
-      </c>
-      <c r="F50" t="s">
-        <v>182</v>
-      </c>
       <c r="G50" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" ref="I50:I53" si="1">J50&amp;":"&amp;E50</f>
         <v>Relico:name</v>
       </c>
       <c r="J50" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" t="s">
         <v>183</v>
       </c>
-      <c r="C51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E51" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" t="s">
-        <v>184</v>
-      </c>
       <c r="G51" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
         <v>Relico:phone</v>
       </c>
       <c r="J51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" t="s">
         <v>185</v>
       </c>
-      <c r="C52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" t="s">
-        <v>186</v>
-      </c>
       <c r="G52" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
         <v>Relico:address</v>
       </c>
       <c r="J52" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" t="s">
         <v>180</v>
-      </c>
-      <c r="D53" t="s">
-        <v>181</v>
       </c>
       <c r="E53" t="str">
         <f>A53</f>
         <v>agentID</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
         <v>Relico:agentID</v>
       </c>
       <c r="J53" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="C54" t="s">
-        <v>308</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
         <v>195</v>
-      </c>
-      <c r="E54" t="s">
-        <v>194</v>
-      </c>
-      <c r="F54" t="s">
-        <v>196</v>
-      </c>
-      <c r="G54" t="s">
-        <v>197</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" ref="I54:I61" si="2">J54&amp;":"&amp;E54</f>
         <v xml:space="preserve">Relico:type </v>
       </c>
       <c r="J54" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="2"/>
         <v>Relico:format</v>
       </c>
       <c r="J55" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" t="s">
         <v>201</v>
-      </c>
-      <c r="C56" t="s">
-        <v>308</v>
-      </c>
-      <c r="D56" t="s">
-        <v>195</v>
-      </c>
-      <c r="E56" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" t="s">
-        <v>202</v>
-      </c>
-      <c r="G56" t="s">
-        <v>203</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="2"/>
         <v>Relico:extent</v>
       </c>
       <c r="J56" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="B57" t="s">
+      <c r="G57" t="s">
         <v>205</v>
-      </c>
-      <c r="C57" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" t="s">
-        <v>205</v>
-      </c>
-      <c r="F57" t="s">
-        <v>206</v>
-      </c>
-      <c r="G57" t="s">
-        <v>207</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="2"/>
         <v>Relico:medium</v>
       </c>
       <c r="J57" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" t="s">
         <v>208</v>
-      </c>
-      <c r="C58" t="s">
-        <v>308</v>
-      </c>
-      <c r="D58" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58" t="s">
-        <v>208</v>
-      </c>
-      <c r="F58" t="s">
-        <v>209</v>
-      </c>
-      <c r="G58" t="s">
-        <v>210</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="2"/>
         <v>Relico:size</v>
       </c>
       <c r="J58" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" t="s">
         <v>211</v>
-      </c>
-      <c r="C59" t="s">
-        <v>308</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E59" t="s">
-        <v>313</v>
-      </c>
-      <c r="F59" t="s">
-        <v>212</v>
-      </c>
-      <c r="G59" t="s">
-        <v>213</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="2"/>
         <v>Relico:formatType</v>
       </c>
       <c r="J59" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" t="s">
         <v>214</v>
       </c>
-      <c r="C60" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" t="s">
-        <v>195</v>
-      </c>
-      <c r="E60" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" t="s">
-        <v>216</v>
-      </c>
       <c r="G60" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="2"/>
         <v>Relico:equipment</v>
       </c>
       <c r="J60" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" t="s">
         <v>217</v>
-      </c>
-      <c r="C61" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" t="s">
-        <v>218</v>
-      </c>
-      <c r="G61" t="s">
-        <v>219</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="2"/>
         <v>Relico:link</v>
       </c>
       <c r="J61" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="1" customFormat="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4" t="str">
@@ -3742,786 +3741,777 @@
         <v>Relico:viewType</v>
       </c>
       <c r="J62" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" t="s">
         <v>222</v>
       </c>
-      <c r="C63" t="s">
-        <v>314</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>223</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>224</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
+        <v>400</v>
+      </c>
+      <c r="J63" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>225</v>
       </c>
-      <c r="G63" t="s">
+      <c r="C64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" t="s">
         <v>226</v>
       </c>
-      <c r="I63" t="s">
-        <v>405</v>
-      </c>
-      <c r="J63" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" t="s">
+      <c r="F64" t="s">
         <v>227</v>
       </c>
-      <c r="C64" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64" t="s">
-        <v>223</v>
-      </c>
-      <c r="E64" t="s">
-        <v>228</v>
-      </c>
-      <c r="F64" t="s">
-        <v>229</v>
-      </c>
       <c r="G64" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I64" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J64" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="2" customFormat="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C66" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D66" t="s">
         <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F66" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I66" t="s">
+        <v>403</v>
+      </c>
+      <c r="J66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" t="s">
+        <v>410</v>
+      </c>
+      <c r="J67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68" t="s">
+        <v>411</v>
+      </c>
+      <c r="J68" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69" t="s">
+        <v>412</v>
+      </c>
+      <c r="J69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" t="s">
+        <v>310</v>
+      </c>
+      <c r="D71" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I71" t="s">
+        <v>414</v>
+      </c>
+      <c r="J71" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>404</v>
+      </c>
+      <c r="C72" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" t="s">
+        <v>404</v>
+      </c>
+      <c r="F72" t="s">
+        <v>405</v>
+      </c>
+      <c r="G72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H72" t="s">
+        <v>407</v>
+      </c>
+      <c r="I72" t="s">
+        <v>415</v>
+      </c>
+      <c r="J72" t="s">
+        <v>409</v>
+      </c>
+      <c r="K72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L72" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" t="s">
+        <v>238</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I73" t="s">
+        <v>416</v>
+      </c>
+      <c r="J73" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>245</v>
+      </c>
+      <c r="F75" t="s">
+        <v>246</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I75" t="s">
+        <v>418</v>
+      </c>
+      <c r="J75" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" t="s">
         <v>250</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I66" t="s">
-        <v>408</v>
-      </c>
-      <c r="J66" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="J67" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="J68" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" t="s">
-        <v>294</v>
-      </c>
-      <c r="F69" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" t="s">
-        <v>55</v>
-      </c>
-      <c r="I69" t="s">
-        <v>415</v>
-      </c>
-      <c r="J69" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" t="s">
-        <v>107</v>
-      </c>
-      <c r="I70" t="s">
-        <v>416</v>
-      </c>
-      <c r="J70" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F71" t="s">
-        <v>145</v>
-      </c>
-      <c r="G71" t="s">
-        <v>153</v>
-      </c>
-      <c r="I71" t="s">
-        <v>417</v>
-      </c>
-      <c r="J71" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="2" customFormat="1">
-      <c r="A72" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="F76" t="s">
+        <v>251</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="J72" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" t="s">
-        <v>234</v>
-      </c>
-      <c r="C73" t="s">
-        <v>314</v>
-      </c>
-      <c r="D73" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" t="s">
-        <v>235</v>
-      </c>
-      <c r="F73" t="s">
-        <v>236</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="I76" t="s">
+        <v>419</v>
+      </c>
+      <c r="J76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" t="s">
+        <v>255</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I73" t="s">
-        <v>419</v>
-      </c>
-      <c r="J73" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" t="s">
-        <v>409</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" t="s">
-        <v>409</v>
-      </c>
-      <c r="F74" t="s">
-        <v>410</v>
-      </c>
-      <c r="G74" t="s">
-        <v>411</v>
-      </c>
-      <c r="H74" t="s">
-        <v>412</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="I77" t="s">
         <v>420</v>
       </c>
-      <c r="J74" t="s">
-        <v>414</v>
-      </c>
-      <c r="K74">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L74" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="B75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" t="s">
-        <v>314</v>
-      </c>
-      <c r="D75" t="s">
-        <v>238</v>
-      </c>
-      <c r="E75" t="s">
-        <v>239</v>
-      </c>
-      <c r="F75" t="s">
-        <v>240</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="J77" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D78" t="s">
+        <v>257</v>
+      </c>
+      <c r="E78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" t="s">
+        <v>259</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I78" t="s">
         <v>421</v>
       </c>
-      <c r="J75" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="1" customFormat="1">
-      <c r="B76" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="J78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C79" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" t="s">
         <v>342</v>
       </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4" t="s">
+      <c r="G79" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I79" t="s">
         <v>422</v>
       </c>
-      <c r="J76" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="B77" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" t="s">
-        <v>246</v>
-      </c>
-      <c r="E77" t="s">
-        <v>247</v>
-      </c>
-      <c r="F77" t="s">
-        <v>248</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I77" t="s">
-        <v>423</v>
-      </c>
-      <c r="J77" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="B78" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D78" t="s">
-        <v>315</v>
-      </c>
-      <c r="E78" t="s">
-        <v>252</v>
-      </c>
-      <c r="F78" t="s">
-        <v>253</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I78" t="s">
-        <v>424</v>
-      </c>
-      <c r="J78" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="B79" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" t="s">
-        <v>314</v>
-      </c>
-      <c r="D79" t="s">
-        <v>255</v>
-      </c>
-      <c r="E79" t="s">
-        <v>256</v>
-      </c>
-      <c r="F79" t="s">
-        <v>257</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I79" t="s">
-        <v>425</v>
-      </c>
       <c r="J79" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="B80" t="s">
-        <v>258</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F80" t="s">
-        <v>261</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I80" t="s">
+        <v>266</v>
+      </c>
+      <c r="G80" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" t="s">
+        <v>268</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" ref="I80:I88" si="3">J80&amp;":"&amp;E80</f>
+        <v>Relico:isEventOf</v>
+      </c>
+      <c r="J80" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" t="s">
+        <v>269</v>
+      </c>
+      <c r="F81" t="s">
+        <v>270</v>
+      </c>
+      <c r="G81" t="s">
+        <v>354</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="3"/>
+        <v>Relico:wasPresentAt</v>
+      </c>
+      <c r="J81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>271</v>
+      </c>
+      <c r="C82" t="s">
         <v>426</v>
       </c>
-      <c r="J80" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="B81" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81" t="s">
-        <v>263</v>
-      </c>
-      <c r="D81" t="s">
-        <v>264</v>
-      </c>
-      <c r="E81" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" t="s">
-        <v>347</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I81" t="s">
-        <v>427</v>
-      </c>
-      <c r="J81" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" t="s">
-        <v>267</v>
-      </c>
       <c r="D82" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="G82" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H82" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" ref="I82:I90" si="3">J82&amp;":"&amp;E82</f>
-        <v>Relico:isEventOf</v>
+        <f t="shared" si="3"/>
+        <v>Relico:isRepresentationOf</v>
       </c>
       <c r="J82" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C83" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="D83" t="s">
-        <v>267</v>
-      </c>
-      <c r="E83" t="s">
-        <v>271</v>
+        <v>275</v>
+      </c>
+      <c r="E83" t="str">
+        <f>A83</f>
+        <v>isDerivativeFrom</v>
       </c>
       <c r="F83" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G83" t="s">
-        <v>359</v>
+        <v>277</v>
+      </c>
+      <c r="H83" t="s">
+        <v>278</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="3"/>
-        <v>Relico:wasPresentAt</v>
+        <v>Relico:isDerivativeFrom</v>
       </c>
       <c r="J83" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E84" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="E84" t="str">
+        <f>A84</f>
+        <v>isInstanceOf</v>
       </c>
       <c r="F84" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G84" t="s">
-        <v>274</v>
-      </c>
-      <c r="H84" t="s">
-        <v>275</v>
-      </c>
-      <c r="I84" t="str">
-        <f t="shared" si="3"/>
-        <v>Relico:isRepresentationOf</v>
+        <v>281</v>
+      </c>
+      <c r="I84" t="s">
+        <v>423</v>
       </c>
       <c r="J84" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C85" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
-      </c>
-      <c r="E85" t="str">
-        <f>A85</f>
-        <v>isDerivativeFrom</v>
+        <v>284</v>
+      </c>
+      <c r="E85" t="s">
+        <v>282</v>
       </c>
       <c r="F85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G85" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H85" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="3"/>
-        <v>Relico:isDerivativeFrom</v>
+        <v>Relico:isAnnotationOf</v>
       </c>
       <c r="J85" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C86" t="s">
-        <v>263</v>
-      </c>
-      <c r="D86" t="s">
-        <v>281</v>
-      </c>
-      <c r="E86" t="str">
-        <f>A86</f>
-        <v>isInstanceOf</v>
+        <v>284</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E86" t="s">
+        <v>288</v>
       </c>
       <c r="F86" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="G86" t="s">
-        <v>283</v>
-      </c>
-      <c r="I86" t="s">
-        <v>428</v>
+        <v>291</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="3"/>
+        <v>Relico:hasType</v>
       </c>
       <c r="J86" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" t="s">
         <v>284</v>
       </c>
-      <c r="C87" t="s">
-        <v>285</v>
-      </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E87" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F87" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G87" t="s">
-        <v>288</v>
-      </c>
-      <c r="H87" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="3"/>
-        <v>Relico:isAnnotationOf</v>
+        <v>Relico:isPartOf</v>
       </c>
       <c r="J87" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>290</v>
-      </c>
-      <c r="C88" t="s">
-        <v>286</v>
+        <v>295</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="E88" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F88" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="G88" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
-        <v>Relico:hasType</v>
+        <v>Relico:isMetadataOf</v>
       </c>
       <c r="J88" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F89" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="G89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I89" t="str">
-        <f t="shared" si="3"/>
-        <v>Relico:isPartOf</v>
+        <v>301</v>
+      </c>
+      <c r="I89" t="s">
+        <v>424</v>
       </c>
       <c r="J89" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>297</v>
-      </c>
-      <c r="C90" t="s">
-        <v>298</v>
+        <v>320</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="E90" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="F90" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="G90" t="s">
-        <v>357</v>
-      </c>
-      <c r="I90" t="str">
-        <f t="shared" si="3"/>
-        <v>Relico:isMetadataOf</v>
+        <v>324</v>
+      </c>
+      <c r="H90" t="s">
+        <v>325</v>
+      </c>
+      <c r="I90" t="s">
+        <v>326</v>
       </c>
       <c r="J90" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
-        <v>299</v>
-      </c>
-      <c r="C91" t="s">
-        <v>300</v>
-      </c>
-      <c r="D91" t="s">
-        <v>301</v>
-      </c>
-      <c r="E91" t="s">
-        <v>299</v>
-      </c>
-      <c r="F91" t="s">
-        <v>302</v>
-      </c>
-      <c r="G91" t="s">
-        <v>303</v>
-      </c>
-      <c r="I91" t="s">
-        <v>429</v>
-      </c>
-      <c r="J91" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" t="s">
-        <v>325</v>
-      </c>
-      <c r="C92" t="s">
-        <v>326</v>
-      </c>
-      <c r="D92" t="s">
         <v>327</v>
       </c>
-      <c r="E92" t="s">
-        <v>325</v>
-      </c>
-      <c r="F92" t="s">
-        <v>328</v>
-      </c>
-      <c r="G92" t="s">
-        <v>329</v>
-      </c>
-      <c r="H92" t="s">
-        <v>330</v>
-      </c>
-      <c r="I92" t="s">
-        <v>331</v>
-      </c>
-      <c r="J92" t="s">
-        <v>332</v>
-      </c>
-      <c r="K92">
+      <c r="K90">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4531,7 +4521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4544,7 +4534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontology/Properties0710.xlsx
+++ b/ontology/Properties0710.xlsx
@@ -1187,10 +1187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VisualDocumentationAggregation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VisualDocumentationItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1690,6 +1686,10 @@
   </si>
   <si>
     <t>relico:FormatType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocumentationAggregation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2080,9 +2080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D58" sqref="D58"/>
+      <selection pane="topRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2098,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2157,10 +2157,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2183,10 +2183,10 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2209,10 +2209,10 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2235,10 +2235,10 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2246,7 +2246,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2265,12 +2265,12 @@
         <v>Relico:identifier</v>
       </c>
       <c r="J6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2288,10 +2288,10 @@
         <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2314,10 +2314,10 @@
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>Relico:currentLocation</v>
       </c>
       <c r="J9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2367,10 +2367,10 @@
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2393,10 +2393,10 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2419,10 +2419,10 @@
         <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2445,10 +2445,10 @@
         <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2471,10 +2471,10 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -2497,10 +2497,10 @@
         <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
@@ -2523,10 +2523,10 @@
         <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2537,7 +2537,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
         <v>75</v>
@@ -2549,10 +2549,10 @@
         <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2563,7 +2563,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
@@ -2575,10 +2575,10 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E19" t="s">
         <v>77</v>
@@ -2601,10 +2601,10 @@
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2627,10 +2627,10 @@
         <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -2653,10 +2653,10 @@
         <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2679,10 +2679,10 @@
         <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2705,10 +2705,10 @@
         <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2731,10 +2731,10 @@
         <v>105</v>
       </c>
       <c r="I24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2757,10 +2757,10 @@
         <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2783,10 +2783,10 @@
         <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2809,10 +2809,10 @@
         <v>115</v>
       </c>
       <c r="I27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2835,10 +2835,10 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2861,10 +2861,10 @@
         <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2887,10 +2887,10 @@
         <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2913,10 +2913,10 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2939,10 +2939,10 @@
         <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2965,15 +2965,15 @@
         <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -2982,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F34" t="s">
         <v>135</v>
@@ -2991,10 +2991,10 @@
         <v>139</v>
       </c>
       <c r="I34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3017,10 +3017,10 @@
         <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3043,10 +3043,10 @@
         <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3069,10 +3069,10 @@
         <v>154</v>
       </c>
       <c r="I37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3095,36 +3095,36 @@
         <v>158</v>
       </c>
       <c r="I38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
         <v>306</v>
       </c>
-      <c r="G39" t="s">
-        <v>307</v>
-      </c>
       <c r="I39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3173,10 +3173,10 @@
         <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3199,36 +3199,36 @@
         <v>155</v>
       </c>
       <c r="I42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D43" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" t="s">
         <v>312</v>
       </c>
-      <c r="E43" t="s">
-        <v>304</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>313</v>
       </c>
-      <c r="G43" t="s">
-        <v>314</v>
-      </c>
       <c r="I43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3251,10 +3251,10 @@
         <v>57</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3277,10 +3277,10 @@
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
         <v>165</v>
       </c>
       <c r="J46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>169</v>
       </c>
       <c r="J47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3358,7 +3358,7 @@
         <v>173</v>
       </c>
       <c r="J48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3384,7 +3384,7 @@
         <v>177</v>
       </c>
       <c r="J49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3404,14 +3404,14 @@
         <v>181</v>
       </c>
       <c r="G50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" ref="I50:I53" si="1">J50&amp;":"&amp;E50</f>
         <v>Relico:name</v>
       </c>
       <c r="J50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3431,14 +3431,14 @@
         <v>183</v>
       </c>
       <c r="G51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
         <v>Relico:phone</v>
       </c>
       <c r="J51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3458,14 +3458,14 @@
         <v>185</v>
       </c>
       <c r="G52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
         <v>Relico:address</v>
       </c>
       <c r="J52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3486,14 +3486,14 @@
         <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
         <v>Relico:agentID</v>
       </c>
       <c r="J53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3501,7 +3501,7 @@
         <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D54" t="s">
         <v>193</v>
@@ -3520,7 +3520,7 @@
         <v xml:space="preserve">Relico:type </v>
       </c>
       <c r="J54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3528,7 +3528,7 @@
         <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D55" t="s">
         <v>193</v>
@@ -3540,14 +3540,14 @@
         <v>198</v>
       </c>
       <c r="G55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="2"/>
         <v>Relico:format</v>
       </c>
       <c r="J55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
         <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D56" t="s">
         <v>193</v>
@@ -3574,7 +3574,7 @@
         <v>Relico:extent</v>
       </c>
       <c r="J56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L56" t="s">
         <v>202</v>
@@ -3585,7 +3585,7 @@
         <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D57" t="s">
         <v>193</v>
@@ -3604,7 +3604,7 @@
         <v>Relico:medium</v>
       </c>
       <c r="J57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>206</v>
       </c>
       <c r="C58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D58" t="s">
         <v>193</v>
@@ -3631,7 +3631,7 @@
         <v>Relico:size</v>
       </c>
       <c r="J58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3639,13 +3639,13 @@
         <v>209</v>
       </c>
       <c r="C59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F59" t="s">
         <v>210</v>
@@ -3658,7 +3658,7 @@
         <v>Relico:formatType</v>
       </c>
       <c r="J59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3678,14 +3678,14 @@
         <v>214</v>
       </c>
       <c r="G60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="2"/>
         <v>Relico:equipment</v>
       </c>
       <c r="J60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>Relico:link</v>
       </c>
       <c r="J61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3733,7 +3733,7 @@
         <v>219</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4" t="str">
@@ -3741,7 +3741,7 @@
         <v>Relico:viewType</v>
       </c>
       <c r="J62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K62" s="4"/>
     </row>
@@ -3750,7 +3750,7 @@
         <v>220</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D63" t="s">
         <v>221</v>
@@ -3765,10 +3765,10 @@
         <v>224</v>
       </c>
       <c r="I63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
         <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D64" t="s">
         <v>221</v>
@@ -3788,65 +3788,65 @@
         <v>227</v>
       </c>
       <c r="G64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>247</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D66" t="s">
         <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
         <v>248</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3869,10 +3869,10 @@
         <v>55</v>
       </c>
       <c r="I67" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3895,10 +3895,10 @@
         <v>107</v>
       </c>
       <c r="I68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3921,10 +3921,10 @@
         <v>153</v>
       </c>
       <c r="I69" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>228</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>229</v>
@@ -3944,13 +3944,13 @@
         <v>231</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3958,7 +3958,7 @@
         <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D71" t="s">
         <v>229</v>
@@ -3970,45 +3970,45 @@
         <v>234</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>403</v>
+      </c>
+      <c r="C72" t="s">
+        <v>424</v>
+      </c>
+      <c r="E72" t="s">
+        <v>403</v>
+      </c>
+      <c r="F72" t="s">
         <v>404</v>
       </c>
-      <c r="C72" t="s">
-        <v>425</v>
-      </c>
-      <c r="E72" t="s">
-        <v>404</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>406</v>
       </c>
-      <c r="H72" t="s">
-        <v>407</v>
-      </c>
       <c r="I72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K72">
         <v>1.1000000000000001</v>
       </c>
       <c r="L72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4016,7 +4016,7 @@
         <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D73" t="s">
         <v>236</v>
@@ -4028,13 +4028,13 @@
         <v>238</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I73" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4042,7 +4042,7 @@
         <v>239</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>240</v>
@@ -4054,14 +4054,14 @@
         <v>242</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4069,7 +4069,7 @@
         <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D75" t="s">
         <v>244</v>
@@ -4081,13 +4081,13 @@
         <v>246</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -4095,10 +4095,10 @@
         <v>249</v>
       </c>
       <c r="C76" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" t="s">
         <v>310</v>
-      </c>
-      <c r="D76" t="s">
-        <v>311</v>
       </c>
       <c r="E76" t="s">
         <v>250</v>
@@ -4107,13 +4107,13 @@
         <v>251</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
         <v>252</v>
       </c>
       <c r="C77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D77" t="s">
         <v>253</v>
@@ -4133,13 +4133,13 @@
         <v>255</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -4147,7 +4147,7 @@
         <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D78" t="s">
         <v>257</v>
@@ -4159,13 +4159,13 @@
         <v>259</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -4182,16 +4182,16 @@
         <v>263</v>
       </c>
       <c r="F79" t="s">
+        <v>341</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="I79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -4221,7 +4221,7 @@
         <v>Relico:isEventOf</v>
       </c>
       <c r="J80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
         <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s">
         <v>265</v>
@@ -4241,14 +4241,14 @@
         <v>270</v>
       </c>
       <c r="G81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="3"/>
         <v>Relico:wasPresentAt</v>
       </c>
       <c r="J81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>271</v>
       </c>
       <c r="C82" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D82" t="s">
         <v>196</v>
@@ -4265,7 +4265,7 @@
         <v>271</v>
       </c>
       <c r="F82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G82" t="s">
         <v>272</v>
@@ -4278,7 +4278,7 @@
         <v>Relico:isRepresentationOf</v>
       </c>
       <c r="J82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4309,12 +4309,12 @@
         <v>Relico:isDerivativeFrom</v>
       </c>
       <c r="J83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C84" t="s">
         <v>261</v>
@@ -4327,16 +4327,16 @@
         <v>isInstanceOf</v>
       </c>
       <c r="F84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G84" t="s">
         <v>281</v>
       </c>
       <c r="I84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4366,7 +4366,7 @@
         <v>Relico:isAnnotationOf</v>
       </c>
       <c r="J85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
         <v>Relico:hasType</v>
       </c>
       <c r="J86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4420,7 +4420,7 @@
         <v>Relico:isPartOf</v>
       </c>
       <c r="J87" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4431,23 +4431,23 @@
         <v>296</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E88" t="s">
         <v>295</v>
       </c>
       <c r="F88" t="s">
+        <v>350</v>
+      </c>
+      <c r="G88" t="s">
         <v>351</v>
-      </c>
-      <c r="G88" t="s">
-        <v>352</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="3"/>
         <v>Relico:isMetadataOf</v>
       </c>
       <c r="J88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4455,54 +4455,54 @@
         <v>297</v>
       </c>
       <c r="C89" t="s">
+        <v>427</v>
+      </c>
+      <c r="D89" t="s">
         <v>298</v>
-      </c>
-      <c r="D89" t="s">
-        <v>299</v>
       </c>
       <c r="E89" t="s">
         <v>297</v>
       </c>
       <c r="F89" t="s">
+        <v>299</v>
+      </c>
+      <c r="G89" t="s">
         <v>300</v>
       </c>
-      <c r="G89" t="s">
-        <v>301</v>
-      </c>
       <c r="I89" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" t="s">
         <v>321</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
+        <v>319</v>
+      </c>
+      <c r="F90" t="s">
         <v>322</v>
       </c>
-      <c r="E90" t="s">
-        <v>320</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>323</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>324</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>325</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>326</v>
-      </c>
-      <c r="J90" t="s">
-        <v>327</v>
       </c>
       <c r="K90">
         <v>0.1</v>
